--- a/biology/Zoologie/Chilorhinophis_gerardi/Chilorhinophis_gerardi.xlsx
+++ b/biology/Zoologie/Chilorhinophis_gerardi/Chilorhinophis_gerardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilorhinophis gerardi est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilorhinophis gerardi est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République démocratique du Congo ;
 en Tanzanie ;
 en Zambie ;
@@ -545,12 +559,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilorhinophis gerardi[1] mesure au maximum :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilorhinophis gerardi mesure au maximum :
 sous-espèce Chilorhinophis gerardi gerardi, 424 mm pour les mâles et 315 mm pour les femelles
 sous-espèce Chilorhinophis gerardi tanganyikae, 490 mm pour les mâles et 570 mm pour les femelles.
-C'est un serpent venimeux[1].
+C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Chilorhinophis gerardi gerardi (Boulenger, 1913)
 Chilorhinophis gerardi tanganyikae Loveridge, 1951</t>
         </is>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Dr. Pol Gérard qui a collecté l'holotype[3]. La sous-espèce Chilorhinophis gerardi tanganyikae est nommée en référence au lieu de sa découverte, Nyamkolo dans les environs du lac Tanganyika[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur du Dr. Pol Gérard qui a collecté l'holotype. La sous-espèce Chilorhinophis gerardi tanganyikae est nommée en référence au lieu de sa découverte, Nyamkolo dans les environs du lac Tanganyika
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1913 : Description de deux reptiles nouveaux provenant du Katanga. Revue Zoologique Africaine, vol. 3, p. 103-105 (texte intégral).
 Loveridge, 1951 : On reptiles and amphibians from Tanganyika Territory : collected by C.P.J. Ionides. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 106, no 4, p. 175-204 (texte intégral).</t>
